--- a/new_benchmarks.xlsx
+++ b/new_benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simone/git/DMO_proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3BA83E-25DD-064D-8ACC-190CB166E583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D31CFAB-AB29-7D41-8300-DF259CA84BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20560" windowHeight="10620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,7 +825,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -907,11 +907,11 @@
         <v>157.03273300000001</v>
       </c>
       <c r="I4" s="18">
-        <v>157.47</v>
+        <v>157.376</v>
       </c>
       <c r="J4" s="19">
         <f t="shared" ref="J4:J11" si="0">100*(I4-G4)/G4</f>
-        <v>0.2784559573321515</v>
+        <v>0.21859582613263015</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1027,11 +1027,11 @@
         <v>12.901103000000001</v>
       </c>
       <c r="I8" s="24">
-        <v>16.48</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="0"/>
-        <v>27.74101563253932</v>
+        <v>27.430964623722485</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1117,11 +1117,11 @@
         <v>24.768999999999998</v>
       </c>
       <c r="I11" s="24">
-        <v>26.265999999999998</v>
+        <v>25.97</v>
       </c>
       <c r="J11" s="30">
         <f t="shared" si="0"/>
-        <v>6.0438451289918849</v>
+        <v>4.8488029391578209</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="J13" s="2">
         <f>MIN(J4:J11)</f>
-        <v>0.2784559573321515</v>
+        <v>0.21859582613263015</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="J14" s="2">
         <f>AVERAGE(J4:J11)</f>
-        <v>18.60756056953549</v>
+        <v>18.411941403304187</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/new_benchmarks.xlsx
+++ b/new_benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simone/git/DMO_proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D31CFAB-AB29-7D41-8300-DF259CA84BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3CB8E2-A602-C341-B300-69CAD5E2D6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20560" windowHeight="10620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20420" windowHeight="10940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -907,11 +907,11 @@
         <v>157.03273300000001</v>
       </c>
       <c r="I4" s="18">
-        <v>157.376</v>
+        <v>157.18</v>
       </c>
       <c r="J4" s="19">
         <f t="shared" ref="J4:J11" si="0">100*(I4-G4)/G4</f>
-        <v>0.21859582613263015</v>
+        <v>9.3781084482557758E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -937,11 +937,11 @@
         <v>34.708820000000003</v>
       </c>
       <c r="I5" s="24">
-        <v>41.91</v>
+        <v>39.125</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="0"/>
-        <v>20.747406566976327</v>
+        <v>12.723509471079677</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -967,11 +967,11 @@
         <v>32.626666999999998</v>
       </c>
       <c r="I6" s="24">
-        <v>39.683</v>
+        <v>37.374000000000002</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="0"/>
-        <v>21.627501822359001</v>
+        <v>14.55046879290491</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -997,11 +997,11 @@
         <v>7.7172020000000003</v>
       </c>
       <c r="I7" s="24">
-        <v>9.11</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="0"/>
-        <v>18.047966089263944</v>
+        <v>15.974675795709363</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1027,11 +1027,11 @@
         <v>12.901103000000001</v>
       </c>
       <c r="I8" s="24">
-        <v>16.440000000000001</v>
+        <v>14.89</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="0"/>
-        <v>27.430964623722485</v>
+        <v>15.416488032069813</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1057,11 +1057,11 @@
         <v>3.044578</v>
       </c>
       <c r="I9" s="24">
-        <v>4.2729999999999997</v>
+        <v>3.7480000000000002</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="0"/>
-        <v>40.347857732664416</v>
+        <v>23.104088645454318</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1087,11 +1087,11 @@
         <v>10.050300999999999</v>
       </c>
       <c r="I10" s="24">
-        <v>11.46</v>
+        <v>10.967000000000001</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="0"/>
-        <v>14.026435626156886</v>
+        <v>9.1211099050665378</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1117,11 +1117,11 @@
         <v>24.768999999999998</v>
       </c>
       <c r="I11" s="24">
-        <v>25.97</v>
+        <v>25.902000000000001</v>
       </c>
       <c r="J11" s="30">
         <f t="shared" si="0"/>
-        <v>4.8488029391578209</v>
+        <v>4.5742662198716246</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="J13" s="2">
         <f>MIN(J4:J11)</f>
-        <v>0.21859582613263015</v>
+        <v>9.3781084482557758E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="J14" s="2">
         <f>AVERAGE(J4:J11)</f>
-        <v>18.411941403304187</v>
+        <v>11.944798493329849</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="J15" s="2">
         <f>MAX(J4:J11)</f>
-        <v>40.347857732664416</v>
+        <v>23.104088645454318</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
